--- a/生徒・講師情報.xlsx
+++ b/生徒・講師情報.xlsx
@@ -39597,7 +39597,11 @@
         </is>
       </c>
       <c r="W31" s="30" t="n"/>
-      <c r="X31" s="39" t="inlineStr"/>
+      <c r="X31" s="39" t="inlineStr">
+        <is>
+          <t>月17-19,火17-19,水17-19,木17-19,金17-19,土17-18</t>
+        </is>
+      </c>
       <c r="Y31" s="32" t="n"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
